--- a/matrix/executed/getsupport_execute.xlsx
+++ b/matrix/executed/getsupport_execute.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\matrix\executed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3095E4A-B2BF-414C-A9BA-62E84F54D552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ED2434-F9A4-4B67-8A6E-7B775A10E131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>T001</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>(iPhone)</t>
   </si>
 </sst>
 </file>
@@ -160,6 +163,22 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -427,6 +446,254 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E2B775-19B3-4E91-8355-113AAC2D19EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034B529D-FC0D-46A9-B524-92EBC3A30FD0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E288DA9-1B8C-4546-885C-45187820E7B6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49BF25CD-C632-4400-86B6-48598F9C685E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -696,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F4"/>
+  <dimension ref="B2:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="E4:G4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,8 +974,8 @@
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -725,7 +992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>45246</v>
       </c>
@@ -733,6 +1000,18 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3">
+        <v>45256</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -829,6 +1108,94 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId7" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>53340</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId8" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>53340</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId9" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>53340</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId10" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>53340</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
